--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.64398035997181</v>
+        <v>94.21022976588702</v>
       </c>
       <c r="D2" t="n">
-        <v>2.567172550467885</v>
+        <v>2.584461419961541</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.53990303038427</v>
+        <v>92.73777828192904</v>
       </c>
       <c r="D3" t="n">
-        <v>2.677733325010057</v>
+        <v>2.358479637439113</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.44242461541035</v>
+        <v>91.45182860654781</v>
       </c>
       <c r="D4" t="n">
-        <v>2.402916093390794</v>
+        <v>2.213648683922313</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.20329330707123</v>
+        <v>89.98372049525538</v>
       </c>
       <c r="D5" t="n">
-        <v>2.156923086707072</v>
+        <v>2.162469403245404</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.91032831226669</v>
+        <v>89.38919595043164</v>
       </c>
       <c r="D6" t="n">
-        <v>2.307105837663384</v>
+        <v>2.379138205800755</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.29621661634755</v>
+        <v>87.99635203521666</v>
       </c>
       <c r="D7" t="n">
-        <v>2.258389266907146</v>
+        <v>2.547763789855426</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.93189139430247</v>
+        <v>86.97318941200568</v>
       </c>
       <c r="D8" t="n">
-        <v>2.55928020117653</v>
+        <v>2.36358099559885</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.37779412457012</v>
+        <v>85.75509061598994</v>
       </c>
       <c r="D9" t="n">
-        <v>2.455286171433954</v>
+        <v>2.297175756708854</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.80744168986914</v>
+        <v>84.75228253687423</v>
       </c>
       <c r="D10" t="n">
-        <v>2.540136782548252</v>
+        <v>2.452089421066713</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.93022373199568</v>
+        <v>83.96906108819354</v>
       </c>
       <c r="D11" t="n">
-        <v>2.205113094297042</v>
+        <v>2.363703965503531</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.56990178284325</v>
+        <v>82.83864741766114</v>
       </c>
       <c r="D12" t="n">
-        <v>2.478633487749988</v>
+        <v>2.139697335516594</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.508170710771</v>
+        <v>81.23390940015307</v>
       </c>
       <c r="D13" t="n">
-        <v>2.441857829680811</v>
+        <v>2.179115825983947</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.37502076427874</v>
+        <v>80.25058670125578</v>
       </c>
       <c r="D14" t="n">
-        <v>2.469253466534715</v>
+        <v>2.211559176364262</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.29675222730825</v>
+        <v>79.75094741891114</v>
       </c>
       <c r="D15" t="n">
-        <v>2.309233942869534</v>
+        <v>2.49207935183377</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.15395408298129</v>
+        <v>78.2821923600596</v>
       </c>
       <c r="D16" t="n">
-        <v>2.79760125617118</v>
+        <v>2.015490209434389</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.18363696568017</v>
+        <v>77.05994587348906</v>
       </c>
       <c r="D17" t="n">
-        <v>2.593987905490094</v>
+        <v>2.176533423936964</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.53640023601544</v>
+        <v>75.85721612458677</v>
       </c>
       <c r="D18" t="n">
-        <v>2.589559402957618</v>
+        <v>2.087649627257279</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.18941701152902</v>
+        <v>74.75975508664725</v>
       </c>
       <c r="D19" t="n">
-        <v>2.501776580273855</v>
+        <v>2.28209390472168</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.10123711405581</v>
+        <v>73.80696988121707</v>
       </c>
       <c r="D20" t="n">
-        <v>2.316887489132714</v>
+        <v>2.295480064918386</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.46952074483748</v>
+        <v>72.86122046040784</v>
       </c>
       <c r="D21" t="n">
-        <v>2.291205666307722</v>
+        <v>1.875402297216046</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.06585933820014</v>
+        <v>71.64767222590395</v>
       </c>
       <c r="D22" t="n">
-        <v>2.27952121121041</v>
+        <v>2.637650700481713</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.86395513343966</v>
+        <v>70.47198835374633</v>
       </c>
       <c r="D23" t="n">
-        <v>2.386348750407399</v>
+        <v>2.224308876874721</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.75917490984452</v>
+        <v>69.99150153423184</v>
       </c>
       <c r="D24" t="n">
-        <v>2.550373575033541</v>
+        <v>2.334771786231089</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.19988292529477</v>
+        <v>68.40001754565341</v>
       </c>
       <c r="D25" t="n">
-        <v>2.393415421353689</v>
+        <v>2.211673135539606</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.18645955158122</v>
+        <v>67.61927839743231</v>
       </c>
       <c r="D26" t="n">
-        <v>2.145737880488285</v>
+        <v>1.85570804939228</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.25112051755042</v>
+        <v>66.46183528569141</v>
       </c>
       <c r="D27" t="n">
-        <v>2.402312673073414</v>
+        <v>2.438889374399833</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.50479710916422</v>
+        <v>65.42854522332711</v>
       </c>
       <c r="D28" t="n">
-        <v>2.412467421211614</v>
+        <v>2.245692023812183</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.50003203819462</v>
+        <v>64.36800580886421</v>
       </c>
       <c r="D29" t="n">
-        <v>2.063442571078597</v>
+        <v>2.368645669115874</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.94346680905501</v>
+        <v>63.1191804500746</v>
       </c>
       <c r="D30" t="n">
-        <v>2.317862698543727</v>
+        <v>2.385100504768431</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.23159587381858</v>
+        <v>61.85902835910605</v>
       </c>
       <c r="D31" t="n">
-        <v>2.141815603889899</v>
+        <v>2.224272925336606</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.38618011684942</v>
+        <v>61.18451049627771</v>
       </c>
       <c r="D32" t="n">
-        <v>2.148341385418035</v>
+        <v>2.158932259354633</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.15076477208485</v>
+        <v>60.06403216370121</v>
       </c>
       <c r="D33" t="n">
-        <v>2.272258099073813</v>
+        <v>2.192047312230267</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.54509581646939</v>
+        <v>59.03525908886577</v>
       </c>
       <c r="D34" t="n">
-        <v>2.276653112829222</v>
+        <v>2.378351718396226</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.61324939656984</v>
+        <v>58.42684791573964</v>
       </c>
       <c r="D35" t="n">
-        <v>2.399400901495465</v>
+        <v>2.210277401001283</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.81501855003538</v>
+        <v>57.18226890623585</v>
       </c>
       <c r="D36" t="n">
-        <v>2.561308453137979</v>
+        <v>2.366664417462361</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.59421640744971</v>
+        <v>56.4835233653015</v>
       </c>
       <c r="D37" t="n">
-        <v>2.42793558748526</v>
+        <v>2.073569292018565</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.77087184379045</v>
+        <v>54.70730124503286</v>
       </c>
       <c r="D38" t="n">
-        <v>2.40629869718153</v>
+        <v>2.353106094060585</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.70521694375618</v>
+        <v>53.66605162234032</v>
       </c>
       <c r="D39" t="n">
-        <v>1.929445142163656</v>
+        <v>2.214720346565587</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.76757396944024</v>
+        <v>52.89066345230663</v>
       </c>
       <c r="D40" t="n">
-        <v>2.489675342044162</v>
+        <v>2.159764123054353</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.62124976158658</v>
+        <v>51.67486520521039</v>
       </c>
       <c r="D41" t="n">
-        <v>2.30017708993926</v>
+        <v>2.135196796702573</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.66776962928676</v>
+        <v>50.87707953659798</v>
       </c>
       <c r="D42" t="n">
-        <v>2.061958134544076</v>
+        <v>2.279415954689705</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.47016644624803</v>
+        <v>49.13751275939252</v>
       </c>
       <c r="D43" t="n">
-        <v>2.456911453623628</v>
+        <v>2.203734675679629</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.43168158395707</v>
+        <v>48.27990365528162</v>
       </c>
       <c r="D44" t="n">
-        <v>2.69088401211424</v>
+        <v>2.39179811214035</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.1787986200304</v>
+        <v>47.7220514217945</v>
       </c>
       <c r="D45" t="n">
-        <v>2.342058513547177</v>
+        <v>2.097459272115445</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.18888073598931</v>
+        <v>46.39998386771276</v>
       </c>
       <c r="D46" t="n">
-        <v>2.401765263435388</v>
+        <v>2.081526710953338</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.3207785744103</v>
+        <v>45.64186669011585</v>
       </c>
       <c r="D47" t="n">
-        <v>2.424494123658562</v>
+        <v>2.119599149009407</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.47394646860509</v>
+        <v>44.28482229379116</v>
       </c>
       <c r="D48" t="n">
-        <v>2.190459541480964</v>
+        <v>2.155377046056072</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.3080798033739</v>
+        <v>43.34174617625393</v>
       </c>
       <c r="D49" t="n">
-        <v>2.09326157851413</v>
+        <v>2.744785643871441</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.73195251954866</v>
+        <v>42.51462755875413</v>
       </c>
       <c r="D50" t="n">
-        <v>2.3291957930919</v>
+        <v>2.291198211647193</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.18434199698554</v>
+        <v>41.49788740705328</v>
       </c>
       <c r="D51" t="n">
-        <v>2.4438866557173</v>
+        <v>2.383745770456243</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.37471382889235</v>
+        <v>40.41958904437754</v>
       </c>
       <c r="D52" t="n">
-        <v>2.343930123774333</v>
+        <v>2.375232466929381</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.63643617855489</v>
+        <v>39.38717346562687</v>
       </c>
       <c r="D53" t="n">
-        <v>2.320180965943224</v>
+        <v>2.024205774590214</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.35490680245086</v>
+        <v>38.11265751328114</v>
       </c>
       <c r="D54" t="n">
-        <v>2.280266833926154</v>
+        <v>2.606604808079957</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90776736012154</v>
+        <v>37.32809541470655</v>
       </c>
       <c r="D55" t="n">
-        <v>2.478412608269495</v>
+        <v>2.104086789192735</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.62636919568992</v>
+        <v>36.48260224379728</v>
       </c>
       <c r="D56" t="n">
-        <v>2.184797765287594</v>
+        <v>2.365336145384192</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.28983862149166</v>
+        <v>34.79799964710374</v>
       </c>
       <c r="D57" t="n">
-        <v>2.068332275067373</v>
+        <v>2.278726230034655</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.35362737513196</v>
+        <v>34.12487266199088</v>
       </c>
       <c r="D58" t="n">
-        <v>1.973468411003457</v>
+        <v>2.40378097230452</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.28166212149974</v>
+        <v>32.71698158702182</v>
       </c>
       <c r="D59" t="n">
-        <v>2.129071226543077</v>
+        <v>2.301895597611692</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99966301944646</v>
+        <v>32.11034102048248</v>
       </c>
       <c r="D60" t="n">
-        <v>2.303862175498947</v>
+        <v>2.082298763031183</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.96625652086376</v>
+        <v>30.87707644760635</v>
       </c>
       <c r="D61" t="n">
-        <v>2.614572841005187</v>
+        <v>2.115198272219522</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.17849856860029</v>
+        <v>30.10396971692244</v>
       </c>
       <c r="D62" t="n">
-        <v>2.439191167546528</v>
+        <v>2.169711336495807</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.23939563019454</v>
+        <v>29.23850420001629</v>
       </c>
       <c r="D63" t="n">
-        <v>2.408677827014189</v>
+        <v>2.178360360913408</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.1396546318278</v>
+        <v>28.05774633059018</v>
       </c>
       <c r="D64" t="n">
-        <v>2.128452624186588</v>
+        <v>2.309460928903854</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.52988528564916</v>
+        <v>27.2621497164787</v>
       </c>
       <c r="D65" t="n">
-        <v>2.071467170990112</v>
+        <v>2.396803691917215</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.80826142544356</v>
+        <v>26.14240547799551</v>
       </c>
       <c r="D66" t="n">
-        <v>1.855681588591812</v>
+        <v>2.00268823155838</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.95836478152096</v>
+        <v>24.8251255622934</v>
       </c>
       <c r="D67" t="n">
-        <v>2.155820763927473</v>
+        <v>2.116232889829623</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.1517993002459</v>
+        <v>24.14721841781226</v>
       </c>
       <c r="D68" t="n">
-        <v>2.289052518445333</v>
+        <v>2.463922345527255</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.9211053008785</v>
+        <v>23.36332861214192</v>
       </c>
       <c r="D69" t="n">
-        <v>2.404971742864324</v>
+        <v>2.31331394271357</v>
       </c>
     </row>
   </sheetData>
